--- a/Document/기획/Lunatic Project 기획서.xlsx
+++ b/Document/기획/Lunatic Project 기획서.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\graduation-portfolio\이진수\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlstn\OneDrive\문서\GitHub\graduation-portfolio\Document\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="162">
   <si>
     <r>
       <t>방어형</t>
@@ -188,24 +188,6 @@
   </si>
   <si>
     <r>
-      <t>공격형 (마법</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>공격형 (궁수</t>
     </r>
     <r>
@@ -440,22 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>텔레포트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>향하고 있는 방향으로 8M         순간이동 한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천둥번개를 내려친다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아군의 체력을 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,10 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부활</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,19 +470,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저주를 걸어 이동속도 감소시킨다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주변에 있는 적에게 저주를 걸어 저주에 걸린 적은 이동속도가     감소된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저주 : 2초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -675,10 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>70초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보호벽 : 50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -691,10 +633,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적군 넉백</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -720,10 +658,6 @@
   </si>
   <si>
     <t>스턴 1.5초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일격 70초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -817,6 +751,47 @@
   </si>
   <si>
     <t>3초( 방벽 체력 : 100 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일격 70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙벽을 만든다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초( 방벽 체력 : 100 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>공격형 (마법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,86 +1089,86 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1486,761 +1461,761 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" style="14" customWidth="1"/>
-    <col min="3" max="4" width="26.5" style="14" customWidth="1"/>
-    <col min="5" max="5" width="26.3984375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="24.8984375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="18.59765625" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="14"/>
+    <col min="1" max="1" width="30.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="10" customWidth="1"/>
+    <col min="3" max="4" width="26.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.3984375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="24.8984375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="18.59765625" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="91.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="21"/>
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="22"/>
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="23"/>
+      <c r="B6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="24"/>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="22"/>
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="23"/>
+      <c r="B12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="15">
+        <v>21</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="24"/>
+      <c r="B13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="22"/>
+      <c r="B17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A18" s="23"/>
+      <c r="B18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="15">
+        <v>30</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="24"/>
+      <c r="B19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="E22" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="22"/>
+      <c r="B23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="23"/>
+      <c r="B24" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="24"/>
+      <c r="B25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="29"/>
-      <c r="B3" s="17" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="26"/>
+      <c r="B27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="17" t="s">
+      <c r="C27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A28" s="27"/>
+      <c r="B28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="17" t="s">
+      <c r="C28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="28"/>
+      <c r="B29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="32"/>
-      <c r="B7" s="24" t="s">
+      <c r="C29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="29"/>
+      <c r="B30" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="15">
+        <v>22</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="30"/>
+      <c r="B31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="C31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="29"/>
-      <c r="B9" s="17" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="26"/>
+      <c r="B33" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
-      <c r="B10" s="17" t="s">
+      <c r="C33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A34" s="27"/>
+      <c r="B34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="17" t="s">
+      <c r="C34" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="28"/>
+      <c r="B35" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="C35" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A36" s="29"/>
+      <c r="B36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="22">
-        <v>21</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="32"/>
-      <c r="B13" s="24" t="s">
+      <c r="C36" s="15">
+        <v>30</v>
+      </c>
+      <c r="D36" s="15">
+        <v>10</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="30"/>
+      <c r="B37" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="25" t="s">
+      <c r="C37" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="29"/>
-      <c r="B15" s="17" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A39" s="26"/>
+      <c r="B39" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C39" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="D39" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A40" s="27"/>
+      <c r="B40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="E40" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="28"/>
+      <c r="B41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A42" s="29"/>
+      <c r="B42" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="30"/>
+      <c r="B43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="29"/>
-      <c r="B16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="31"/>
-      <c r="B18" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="32"/>
-      <c r="B19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="F43" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="22">
-        <v>22</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A34" s="18"/>
-      <c r="B34" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="22">
-        <v>30</v>
-      </c>
-      <c r="D36" s="22">
-        <v>10</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="7"/>
-      <c r="B39" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="46.8" x14ac:dyDescent="0.4">
-      <c r="A40" s="18"/>
-      <c r="B40" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="22">
-        <v>30</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
@@ -2278,33 +2253,33 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3">
         <v>600</v>
@@ -2327,11 +2302,11 @@
       <c r="H2" s="3">
         <v>200</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5">
         <v>15</v>
@@ -2354,11 +2329,11 @@
       <c r="H3" s="5">
         <v>20</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -2381,11 +2356,11 @@
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -2408,14 +2383,14 @@
       <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C6" s="5">
         <v>20</v>
@@ -2430,16 +2405,16 @@
         <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H6" s="5">
         <v>40</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5">
         <v>22</v>
@@ -2457,46 +2432,46 @@
         <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5">
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5">
         <v>70</v>
@@ -2511,43 +2486,43 @@
         <v>112</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4">
         <v>160</v>
@@ -2570,19 +2545,19 @@
       <c r="H11" s="4">
         <v>150</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I12" s="9"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I13" s="9"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I14" s="9"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="I15" s="9"/>
+      <c r="I15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Document/기획/Lunatic Project 기획서.xlsx
+++ b/Document/기획/Lunatic Project 기획서.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="161">
   <si>
     <r>
       <t>방어형</t>
@@ -187,28 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>공격형 (궁수</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어형(한손검 &amp;  방패)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어형(양손도끼)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,14 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화살을 빠르게 3번 쏜다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3번의 데미지를 입힌다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,14 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연막탄을 던져 은신상태를 만든다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">연막탄 안에 있는 사람은 모두   은신상태가 되는데 은신상태가 되면  적과 아군 모두 공격을 할수 없다 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,10 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연막탄 : 2.5초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,10 +477,6 @@
   </si>
   <si>
     <t>시전자는 방어막이 생기면서     적으로 부터 받는 데미지를         막을수 있다.                            (방어막 : 체력 30만큼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -780,6 +734,47 @@
   <si>
     <r>
       <t>공격형 (마법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어형(격투)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기를 모아 화살을 강하게 쏜다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한순간에 강한 대미지를 준다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈래 화살을 쏜다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방에 여러 방향으로               화살을 쏜다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>공격형 (궁수</t>
     </r>
     <r>
       <rPr>
@@ -1460,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1495,12 +1490,12 @@
         <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>2</v>
@@ -1520,13 +1515,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G3" s="14"/>
     </row>
@@ -1536,16 +1531,16 @@
         <v>10</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>153</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G4" s="14"/>
     </row>
@@ -1555,13 +1550,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>29</v>
@@ -1571,19 +1566,19 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="23"/>
       <c r="B6" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G6" s="14"/>
     </row>
@@ -1596,19 +1591,19 @@
         <v>28</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>2</v>
@@ -1624,16 +1619,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
@@ -1642,16 +1637,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1660,34 +1655,34 @@
         <v>15</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A12" s="23"/>
       <c r="B12" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C12" s="15">
         <v>21</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1696,21 +1691,21 @@
         <v>16</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>2</v>
@@ -1726,16 +1721,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
@@ -1744,16 +1739,16 @@
         <v>10</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1762,34 +1757,34 @@
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A18" s="23"/>
       <c r="B18" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="15">
         <v>30</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1801,18 +1796,18 @@
         <v>26</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>2</v>
@@ -1828,16 +1823,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
@@ -1846,16 +1841,16 @@
         <v>10</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1864,13 +1859,13 @@
         <v>15</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>22</v>
@@ -1879,19 +1874,19 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="23"/>
       <c r="B24" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1903,128 +1898,128 @@
         <v>26</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F25" s="16">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="26"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A28" s="27"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
       <c r="B28" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="28"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="29"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A30" s="23"/>
       <c r="B30" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="C30" s="15">
+        <v>30</v>
       </c>
       <c r="D30" s="15">
-        <v>22</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="E30" s="15">
+        <v>50</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="30"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="26"/>
@@ -2032,16 +2027,16 @@
         <v>3</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
@@ -2050,16 +2045,16 @@
         <v>10</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -2068,34 +2063,34 @@
         <v>15</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="29"/>
       <c r="B36" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="15">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D36" s="15">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -2104,21 +2099,21 @@
         <v>16</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>2</v>
@@ -2134,16 +2129,16 @@
         <v>3</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
@@ -2152,16 +2147,16 @@
         <v>10</v>
       </c>
       <c r="C40" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -2170,34 +2165,34 @@
         <v>15</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -2206,16 +2201,16 @@
         <v>16</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
@@ -2240,7 +2235,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2253,25 +2248,25 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>25</v>
@@ -2279,7 +2274,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B2" s="3">
         <v>600</v>
@@ -2306,7 +2301,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5">
         <v>15</v>
@@ -2333,7 +2328,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -2360,7 +2355,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -2387,10 +2382,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C6" s="5">
         <v>20</v>
@@ -2405,7 +2400,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H6" s="5">
         <v>40</v>
@@ -2414,7 +2409,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5">
         <v>22</v>
@@ -2432,46 +2427,46 @@
         <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5">
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5">
         <v>70</v>
@@ -2486,43 +2481,43 @@
         <v>112</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4">
         <v>160</v>

--- a/Document/기획/Lunatic Project 기획서.xlsx
+++ b/Document/기획/Lunatic Project 기획서.xlsx
@@ -25,37 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="161">
-  <si>
-    <r>
-      <t>방어형</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(한손검 &amp; 방패)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
   <si>
     <r>
       <t xml:space="preserve">                                        스킬                                               </t>
@@ -115,14 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적을 기절시킨다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기절당한 적은 아무 행동을 하지 못한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,14 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬을 사용하면 아군 전체가    무적상태가 된다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +126,6 @@
   </si>
   <si>
     <t>6초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,6 +721,51 @@
   <si>
     <r>
       <t>공격형 (궁수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼를 크게 휘두르며 내리친다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 데미지를 입히고               출혈을 일으킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 ( + 출혈 초당 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내리찍어 적을 기절시킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절당한 적은 아무 행동을 하지 못한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>방어형 (양손도끼</t>
     </r>
     <r>
       <rPr>
@@ -1455,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1472,33 +1463,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="91.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -1509,104 +1500,104 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="21"/>
       <c r="B3" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="21"/>
       <c r="B4" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="22"/>
       <c r="B5" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="23"/>
       <c r="B6" s="15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="24"/>
       <c r="B7" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -1616,99 +1607,99 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="21"/>
       <c r="B9" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A10" s="21"/>
       <c r="B10" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A12" s="23"/>
       <c r="B12" s="15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C12" s="15">
         <v>21</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1718,99 +1709,99 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="21"/>
       <c r="B15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A16" s="21"/>
       <c r="B16" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="22"/>
       <c r="B17" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A18" s="23"/>
       <c r="B18" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C18" s="15">
         <v>30</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="24"/>
       <c r="B19" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -1820,88 +1811,88 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="21"/>
       <c r="B21" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A22" s="21"/>
       <c r="B22" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
       <c r="B23" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="23"/>
       <c r="B24" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>120</v>
-      </c>
       <c r="D24" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="24"/>
       <c r="B25" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F25" s="16">
         <v>70</v>
@@ -1909,10 +1900,10 @@
     </row>
     <row r="26" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -1922,61 +1913,61 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="21"/>
       <c r="B27" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A28" s="21"/>
       <c r="B28" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="22"/>
       <c r="B29" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A30" s="23"/>
       <c r="B30" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C30" s="15">
         <v>30</v>
@@ -1988,33 +1979,33 @@
         <v>50</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="24"/>
       <c r="B31" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="26" t="s">
-        <v>0</v>
+      <c r="A32" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -2022,101 +2013,101 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="26"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="22"/>
+      <c r="B35" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
-      <c r="A34" s="27"/>
-      <c r="B34" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="28"/>
-      <c r="B35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="F35" s="13" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="29"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D36" s="15">
         <v>22</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="30"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -2126,91 +2117,91 @@
     <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A39" s="26"/>
       <c r="B39" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A40" s="27"/>
       <c r="B40" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="28"/>
       <c r="B41" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A42" s="29"/>
       <c r="B42" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="30"/>
       <c r="B43" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
@@ -2248,33 +2239,33 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3">
         <v>600</v>
@@ -2301,7 +2292,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5">
         <v>15</v>
@@ -2328,7 +2319,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -2355,7 +2346,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -2382,10 +2373,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C6" s="5">
         <v>20</v>
@@ -2400,7 +2391,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H6" s="5">
         <v>40</v>
@@ -2409,7 +2400,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5">
         <v>22</v>
@@ -2427,46 +2418,46 @@
         <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5">
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5">
         <v>70</v>
@@ -2481,43 +2472,43 @@
         <v>112</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4">
         <v>160</v>

--- a/Document/기획/Lunatic Project 기획서.xlsx
+++ b/Document/기획/Lunatic Project 기획서.xlsx
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/Document/기획/Lunatic Project 기획서.xlsx
+++ b/Document/기획/Lunatic Project 기획서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="스킬기획" sheetId="1" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -2225,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2271,7 +2271,7 @@
         <v>600</v>
       </c>
       <c r="C2" s="3">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="D2" s="3">
         <v>300</v>
@@ -2322,16 +2322,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="E4" s="4">
         <v>1.6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1.7</v>
       </c>
       <c r="F4" s="4">
         <v>1.2</v>

--- a/Document/기획/Lunatic Project 기획서.xlsx
+++ b/Document/기획/Lunatic Project 기획서.xlsx
@@ -2226,7 +2226,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2277,10 +2277,10 @@
         <v>300</v>
       </c>
       <c r="E2" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F2" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G2" s="3">
         <v>200</v>
@@ -2298,16 +2298,16 @@
         <v>15</v>
       </c>
       <c r="C3" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5">
         <v>17</v>
       </c>
-      <c r="E3" s="5">
-        <v>19</v>
-      </c>
       <c r="F3" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5">
         <v>20</v>
@@ -2322,7 +2322,7 @@
         <v>89</v>
       </c>
       <c r="B4" s="4">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -2331,10 +2331,10 @@
         <v>1.8</v>
       </c>
       <c r="E4" s="4">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="F4" s="4">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
